--- a/data/panelapp/au/Hereditary Neuropathy_CMT - isolated.xlsx
+++ b/data/panelapp/au/Hereditary Neuropathy_CMT - isolated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539831</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539843</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539846</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539848</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539851</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539854</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539856</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Hereditary Neuropathy_CMT - isolated</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539859</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -661,12 +706,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COX6A1</t>
+          <t>COX20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cytochrome c oxidase subunit 6A1</t>
+          <t>COX20, cytochrome c oxidase assembly factor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -677,6 +722,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539862</t>
         </is>
       </c>
     </row>
@@ -686,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DCTN1</t>
+          <t>COX6A1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dynactin subunit 1</t>
+          <t>cytochrome c oxidase subunit 6A1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -702,6 +752,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539864</t>
         </is>
       </c>
     </row>
@@ -711,12 +766,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DNAJB2</t>
+          <t>DCTN1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DnaJ heat shock protein family (Hsp40) member B2</t>
+          <t>dynactin subunit 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -727,6 +782,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539867</t>
         </is>
       </c>
     </row>
@@ -736,12 +796,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DNM2</t>
+          <t>DNAJB2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dynamin 2</t>
+          <t>DnaJ heat shock protein family (Hsp40) member B2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -752,6 +812,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539869</t>
         </is>
       </c>
     </row>
@@ -761,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DNMT1</t>
+          <t>DNM2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DNA methyltransferase 1</t>
+          <t>dynamin 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -777,6 +842,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539872</t>
         </is>
       </c>
     </row>
@@ -786,12 +856,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DRP2</t>
+          <t>DNMT1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>dystrophin related protein 2</t>
+          <t>DNA methyltransferase 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -802,6 +872,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539874</t>
         </is>
       </c>
     </row>
@@ -811,12 +886,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>DRP2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>dystonin</t>
+          <t>dystrophin related protein 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -827,6 +902,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539877</t>
         </is>
       </c>
     </row>
@@ -836,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DYNC1H1</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dynein cytoplasmic 1 heavy chain 1</t>
+          <t>dystonin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -852,6 +932,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539879</t>
         </is>
       </c>
     </row>
@@ -861,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EGR2</t>
+          <t>DYNC1H1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>early growth response 2</t>
+          <t>dynein cytoplasmic 1 heavy chain 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -877,6 +962,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539882</t>
         </is>
       </c>
     </row>
@@ -886,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ELP1</t>
+          <t>EGR2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>elongator complex protein 1</t>
+          <t>early growth response 2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -902,6 +992,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539884</t>
         </is>
       </c>
     </row>
@@ -911,12 +1006,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FBLN5</t>
+          <t>ELP1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fibulin 5</t>
+          <t>elongator complex protein 1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -927,6 +1022,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539887</t>
         </is>
       </c>
     </row>
@@ -936,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FGD4</t>
+          <t>FBLN5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FYVE, RhoGEF and PH domain containing 4</t>
+          <t>fibulin 5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -952,6 +1052,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539890</t>
         </is>
       </c>
     </row>
@@ -961,12 +1066,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FIG4</t>
+          <t>FGD4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FIG4 phosphoinositide 5-phosphatase</t>
+          <t>FYVE, RhoGEF and PH domain containing 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -977,6 +1082,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539892</t>
         </is>
       </c>
     </row>
@@ -986,12 +1096,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GARS</t>
+          <t>FIG4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>glycyl-tRNA synthetase</t>
+          <t>FIG4 phosphoinositide 5-phosphatase</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,6 +1112,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539894</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GBF1</t>
+          <t>GARS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>golgi brefeldin A resistant guanine nucleotide exchange factor 1</t>
+          <t>glycyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1027,6 +1142,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539897</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1156,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GDAP1</t>
+          <t>GBF1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ganglioside induced differentiation associated protein 1</t>
+          <t>golgi brefeldin A resistant guanine nucleotide exchange factor 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1052,6 +1172,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539899</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GJB1</t>
+          <t>GDAP1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gap junction protein beta 1</t>
+          <t>ganglioside induced differentiation associated protein 1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1077,6 +1202,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539902</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1216,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GNB4</t>
+          <t>GJB1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G protein subunit beta 4</t>
+          <t>gap junction protein beta 1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1102,6 +1232,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539905</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1246,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HARS</t>
+          <t>GNB4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase</t>
+          <t>G protein subunit beta 4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1127,6 +1262,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539908</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1276,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HINT1</t>
+          <t>HARS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>histidine triad nucleotide binding protein 1</t>
+          <t>histidyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1152,6 +1292,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539910</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1306,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HK1</t>
+          <t>HINT1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hexokinase 1</t>
+          <t>histidine triad nucleotide binding protein 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1177,6 +1322,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539913</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1336,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HSPB1</t>
+          <t>HK1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 1</t>
+          <t>hexokinase 1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1202,6 +1352,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539915</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1366,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HSPB8</t>
+          <t>HSPB1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 8</t>
+          <t>heat shock protein family B (small) member 1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1227,6 +1382,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539918</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1396,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IGHMBP2</t>
+          <t>HSPB8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>immunoglobulin mu binding protein 2</t>
+          <t>heat shock protein family B (small) member 8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1252,6 +1412,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539920</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1426,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INF2</t>
+          <t>IGHMBP2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inverted formin, FH2 and WH2 domain containing</t>
+          <t>immunoglobulin mu binding protein 2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1277,6 +1442,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539923</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1456,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JAG1</t>
+          <t>INF2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>jagged 1</t>
+          <t>inverted formin, FH2 and WH2 domain containing</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1302,6 +1472,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539926</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1486,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KIF1A</t>
+          <t>JAG1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>kinesin family member 1A</t>
+          <t>jagged 1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1327,6 +1502,11 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539928</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KIF5A</t>
+          <t>KIF1A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>kinesin family member 5A</t>
+          <t>kinesin family member 1A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1352,6 +1532,11 @@
       <c r="E37" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539931</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1546,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LITAF</t>
+          <t>KIF5A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>lipopolysaccharide induced TNF factor</t>
+          <t>kinesin family member 5A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1377,6 +1562,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539933</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1576,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LRSAM1</t>
+          <t>LITAF</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>leucine rich repeat and sterile alpha motif containing 1</t>
+          <t>lipopolysaccharide induced TNF factor</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1402,6 +1592,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539936</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1606,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MFN2</t>
+          <t>LRSAM1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>mitofusin 2</t>
+          <t>leucine rich repeat and sterile alpha motif containing 1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1427,6 +1622,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539938</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1636,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MME</t>
+          <t>MFN2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>membrane metalloendopeptidase</t>
+          <t>mitofusin 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1452,6 +1652,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539941</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1666,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MORC2</t>
+          <t>MME</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORC family CW-type zinc finger 2</t>
+          <t>membrane metalloendopeptidase</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1477,6 +1682,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539944</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MPV17</t>
+          <t>MORC2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MPV17, mitochondrial inner membrane protein</t>
+          <t>MORC family CW-type zinc finger 2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539946</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MPZ</t>
+          <t>MPV17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>myelin protein zero</t>
+          <t>MPV17, mitochondrial inner membrane protein</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539949</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MTMR2</t>
+          <t>MPZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>myotubularin related protein 2</t>
+          <t>myelin protein zero</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539951</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NDRG1</t>
+          <t>MTMR2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N-myc downstream regulated 1</t>
+          <t>myotubularin related protein 2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539954</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NEFH</t>
+          <t>NDRG1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>neurofilament heavy</t>
+          <t>N-myc downstream regulated 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539956</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NEFL</t>
+          <t>NEFH</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>neurofilament light</t>
+          <t>neurofilament heavy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539959</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NGF</t>
+          <t>NEFL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>nerve growth factor</t>
+          <t>neurofilament light</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539961</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PDK3</t>
+          <t>NGF</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase kinase 3</t>
+          <t>nerve growth factor</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539964</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLEKHG5</t>
+          <t>PDK3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RhoGEF domain containing G5</t>
+          <t>pyruvate dehydrogenase kinase 3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539966</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PMP2</t>
+          <t>PLEKHG5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>peripheral myelin protein 2</t>
+          <t>pleckstrin homology and RhoGEF domain containing G5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539969</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PMP22</t>
+          <t>PMP2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peripheral myelin protein 22</t>
+          <t>peripheral myelin protein 2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539972</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PRDM12</t>
+          <t>PMP22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PR/SET domain 12</t>
+          <t>peripheral myelin protein 22</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539974</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PRPS1</t>
+          <t>PRDM12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>phosphoribosyl pyrophosphate synthetase 1</t>
+          <t>PR/SET domain 12</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539977</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PRX</t>
+          <t>PRPS1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>periaxin</t>
+          <t>phosphoribosyl pyrophosphate synthetase 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539980</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RAB7A</t>
+          <t>PRX</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RAB7A, member RAS oncogene family</t>
+          <t>periaxin</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539982</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>REEP1</t>
+          <t>RAB7A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>receptor accessory protein 1</t>
+          <t>RAB7A, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539985</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RETREG1</t>
+          <t>REEP1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>reticulophagy regulator 1</t>
+          <t>receptor accessory protein 1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539987</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SBF1</t>
+          <t>RETREG1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SET binding factor 1</t>
+          <t>reticulophagy regulator 1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539990</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SBF2</t>
+          <t>SBF1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SET binding factor 2</t>
+          <t>SET binding factor 1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539992</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SCN10A</t>
+          <t>SBF2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 10</t>
+          <t>SET binding factor 2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539995</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SCN11A</t>
+          <t>SCN10A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 11</t>
+          <t>sodium voltage-gated channel alpha subunit 10</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.539997</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SCN9A</t>
+          <t>SCN11A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sodium voltage-gated channel alpha subunit 9</t>
+          <t>sodium voltage-gated channel alpha subunit 11</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540000</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEPT9</t>
+          <t>SCN9A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>septin 9</t>
+          <t>sodium voltage-gated channel alpha subunit 9</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540002</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SH3TC2</t>
+          <t>SEPT9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SH3 domain and tetratricopeptide repeats 2</t>
+          <t>septin 9</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540005</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SIGMAR1</t>
+          <t>SH3TC2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sigma non-opioid intracellular receptor 1</t>
+          <t>SH3 domain and tetratricopeptide repeats 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540008</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SLC5A7</t>
+          <t>SIGMAR1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>solute carrier family 5 member 7</t>
+          <t>sigma non-opioid intracellular receptor 1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540011</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SMN1</t>
+          <t>SLC5A7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>survival of motor neuron 1, telomeric</t>
+          <t>solute carrier family 5 member 7</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540014</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SORD</t>
+          <t>SMN1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sorbitol dehydrogenase</t>
+          <t>survival of motor neuron 1, telomeric</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540016</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SPG11</t>
+          <t>SORD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SPG11, spatacsin vesicle trafficking associated</t>
+          <t>sorbitol dehydrogenase</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540019</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SPTAN1</t>
+          <t>SPG11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>spectrin alpha, non-erythrocytic 1</t>
+          <t>SPG11, spatacsin vesicle trafficking associated</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540021</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SPTLC1</t>
+          <t>SPTAN1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>serine palmitoyltransferase long chain base subunit 1</t>
+          <t>spectrin alpha, non-erythrocytic 1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540024</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SPTLC2</t>
+          <t>SPTLC1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>serine palmitoyltransferase long chain base subunit 2</t>
+          <t>serine palmitoyltransferase long chain base subunit 1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540026</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SYT2</t>
+          <t>SPTLC2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>synaptotagmin 2</t>
+          <t>serine palmitoyltransferase long chain base subunit 2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540029</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TFG</t>
+          <t>SYT2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TRK-fused gene</t>
+          <t>synaptotagmin 2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540031</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRIM2</t>
+          <t>TFG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tripartite motif containing 2</t>
+          <t>TRK-fused gene</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540034</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRPV4</t>
+          <t>TRIM2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily V member 4</t>
+          <t>tripartite motif containing 2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540038</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>UBA1</t>
+          <t>TRPV4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 1</t>
+          <t>transient receptor potential cation channel subfamily V member 4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540041</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VAPB</t>
+          <t>UBA1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VAMP associated protein B and C</t>
+          <t>ubiquitin like modifier activating enzyme 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540044</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>VAPB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>valosin containing protein</t>
+          <t>VAMP associated protein B and C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540046</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>valosin containing protein</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540049</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VWA1</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>von Willebrand factor A domain containing 1</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540051</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WARS</t>
+          <t>VWA1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>tryptophanyl-tRNA synthetase</t>
+          <t>von Willebrand factor A domain containing 1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540054</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WNK1</t>
+          <t>WARS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>WNK lysine deficient protein kinase 1</t>
+          <t>tryptophanyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540056</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>YARS</t>
+          <t>WNK1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>tyrosyl-tRNA synthetase</t>
+          <t>WNK lysine deficient protein kinase 1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540059</t>
         </is>
       </c>
     </row>
@@ -2586,22 +3016,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ARHGEF10</t>
+          <t>YARS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rho guanine nucleotide exchange factor 10</t>
+          <t>tyrosyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540062</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C1orf194</t>
+          <t>ARHGEF10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chromosome 1 open reading frame 194</t>
+          <t>Rho guanine nucleotide exchange factor 10</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540064</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CADM3</t>
+          <t>C1orf194</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>cell adhesion molecule 3</t>
+          <t>chromosome 1 open reading frame 194</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540067</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DGAT2</t>
+          <t>CADM3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>diacylglycerol O-acyltransferase 2</t>
+          <t>cell adhesion molecule 3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540070</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DHTKD1</t>
+          <t>DGAT2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>dehydrogenase E1 and transketolase domain containing 1</t>
+          <t>diacylglycerol O-acyltransferase 2</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540072</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FBXO38</t>
+          <t>DHTKD1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>F-box protein 38</t>
+          <t>dehydrogenase E1 and transketolase domain containing 1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540075</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ITPR3</t>
+          <t>FBXO38</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inositol 1,4,5-trisphosphate receptor type 3</t>
+          <t>F-box protein 38</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540077</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KIF1B</t>
+          <t>ITPR3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>kinesin family member 1B</t>
+          <t>inositol 1,4,5-trisphosphate receptor type 3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540081</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LMNA</t>
+          <t>KIF1B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>lamin A/C</t>
+          <t>kinesin family member 1B</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540084</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MARS</t>
+          <t>LMNA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>methionyl-tRNA synthetase</t>
+          <t>lamin A/C</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540087</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NAGLU</t>
+          <t>MARS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N-acetyl-alpha-glucosaminidase</t>
+          <t>methionyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540089</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RBM7</t>
+          <t>NAGLU</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RNA binding motif protein 7</t>
+          <t>N-acetyl-alpha-glucosaminidase</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540092</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SCO2</t>
+          <t>RBM7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SCO2, cytochrome c oxidase assembly protein</t>
+          <t>RNA binding motif protein 7</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540095</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>UBA5</t>
+          <t>SCO2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 5</t>
+          <t>SCO2, cytochrome c oxidase assembly protein</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540097</t>
         </is>
       </c>
     </row>
@@ -2936,22 +3436,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HSPB3</t>
+          <t>UBA5</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>heat shock protein family B (small) member 3</t>
+          <t>ubiquitin like modifier activating enzyme 5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540100</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IQGAP3</t>
+          <t>HSPB3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>IQ motif containing GTPase activating protein 3</t>
+          <t>heat shock protein family B (small) member 3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540103</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KLHL13</t>
+          <t>IQGAP3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>kelch like family member 13</t>
+          <t>IQ motif containing GTPase activating protein 3</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540105</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LAS1L</t>
+          <t>KLHL13</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LAS1 like, ribosome biogenesis factor</t>
+          <t>kelch like family member 13</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540108</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MED25</t>
+          <t>LAS1L</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>mediator complex subunit 25</t>
+          <t>LAS1 like, ribosome biogenesis factor</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540111</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SH3BP4</t>
+          <t>MED25</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SH3 domain binding protein 4</t>
+          <t>mediator complex subunit 25</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540113</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3616,57 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>SH3BP4</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SH3 domain binding protein 4</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540116</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>TRPA1</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>transient receptor potential cation channel subfamily A member 1</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Hereditary Neuropathy_CMT - isolated</t>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:00.540119</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Hereditary Neuropathy_CMT - isolated.xlsx
+++ b/data/panelapp/au/Hereditary Neuropathy_CMT - isolated.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539831</t>
+          <t>2021-10-05 14:33:57.597292</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539843</t>
+          <t>2021-10-05 14:33:57.597299</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539846</t>
+          <t>2021-10-05 14:33:57.597302</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539848</t>
+          <t>2021-10-05 14:33:57.597305</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539851</t>
+          <t>2021-10-05 14:33:57.597308</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539854</t>
+          <t>2021-10-05 14:33:57.597310</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539856</t>
+          <t>2021-10-05 14:33:57.597313</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539859</t>
+          <t>2021-10-05 14:33:57.597315</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539862</t>
+          <t>2021-10-05 14:33:57.597318</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539864</t>
+          <t>2021-10-05 14:33:57.597321</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539867</t>
+          <t>2021-10-05 14:33:57.597323</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539869</t>
+          <t>2021-10-05 14:33:57.597326</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539872</t>
+          <t>2021-10-05 14:33:57.597328</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539874</t>
+          <t>2021-10-05 14:33:57.597331</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539877</t>
+          <t>2021-10-05 14:33:57.597333</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539879</t>
+          <t>2021-10-05 14:33:57.597336</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539882</t>
+          <t>2021-10-05 14:33:57.597338</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539884</t>
+          <t>2021-10-05 14:33:57.597341</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539887</t>
+          <t>2021-10-05 14:33:57.597344</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539890</t>
+          <t>2021-10-05 14:33:57.597346</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539892</t>
+          <t>2021-10-05 14:33:57.597349</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539894</t>
+          <t>2021-10-05 14:33:57.597351</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539897</t>
+          <t>2021-10-05 14:33:57.597354</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539899</t>
+          <t>2021-10-05 14:33:57.597356</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539902</t>
+          <t>2021-10-05 14:33:57.597359</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539905</t>
+          <t>2021-10-05 14:33:57.597361</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539908</t>
+          <t>2021-10-05 14:33:57.597364</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539910</t>
+          <t>2021-10-05 14:33:57.597366</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539913</t>
+          <t>2021-10-05 14:33:57.597369</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539915</t>
+          <t>2021-10-05 14:33:57.597371</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539918</t>
+          <t>2021-10-05 14:33:57.597374</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539920</t>
+          <t>2021-10-05 14:33:57.597376</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539923</t>
+          <t>2021-10-05 14:33:57.597379</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539926</t>
+          <t>2021-10-05 14:33:57.597382</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539928</t>
+          <t>2021-10-05 14:33:57.597385</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539931</t>
+          <t>2021-10-05 14:33:57.597387</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539933</t>
+          <t>2021-10-05 14:33:57.597390</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539936</t>
+          <t>2021-10-05 14:33:57.597392</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539938</t>
+          <t>2021-10-05 14:33:57.597395</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539941</t>
+          <t>2021-10-05 14:33:57.597397</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539944</t>
+          <t>2021-10-05 14:33:57.597400</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539946</t>
+          <t>2021-10-05 14:33:57.597403</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539949</t>
+          <t>2021-10-05 14:33:57.597405</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539951</t>
+          <t>2021-10-05 14:33:57.597408</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539954</t>
+          <t>2021-10-05 14:33:57.597410</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539956</t>
+          <t>2021-10-05 14:33:57.597413</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539959</t>
+          <t>2021-10-05 14:33:57.597415</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539961</t>
+          <t>2021-10-05 14:33:57.597418</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539964</t>
+          <t>2021-10-05 14:33:57.597420</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539966</t>
+          <t>2021-10-05 14:33:57.597423</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539969</t>
+          <t>2021-10-05 14:33:57.597425</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539972</t>
+          <t>2021-10-05 14:33:57.597428</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539974</t>
+          <t>2021-10-05 14:33:57.597431</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539977</t>
+          <t>2021-10-05 14:33:57.597433</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539980</t>
+          <t>2021-10-05 14:33:57.597436</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539982</t>
+          <t>2021-10-05 14:33:57.597438</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539985</t>
+          <t>2021-10-05 14:33:57.597441</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539987</t>
+          <t>2021-10-05 14:33:57.597443</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539990</t>
+          <t>2021-10-05 14:33:57.597446</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539992</t>
+          <t>2021-10-05 14:33:57.597448</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539995</t>
+          <t>2021-10-05 14:33:57.597451</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.539997</t>
+          <t>2021-10-05 14:33:57.597453</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540000</t>
+          <t>2021-10-05 14:33:57.597455</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540002</t>
+          <t>2021-10-05 14:33:57.597458</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540005</t>
+          <t>2021-10-05 14:33:57.597461</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540008</t>
+          <t>2021-10-05 14:33:57.597464</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540011</t>
+          <t>2021-10-05 14:33:57.597467</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540014</t>
+          <t>2021-10-05 14:33:57.597469</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540016</t>
+          <t>2021-10-05 14:33:57.597472</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540019</t>
+          <t>2021-10-05 14:33:57.597474</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540021</t>
+          <t>2021-10-05 14:33:57.597476</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540024</t>
+          <t>2021-10-05 14:33:57.597479</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540026</t>
+          <t>2021-10-05 14:33:57.597481</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540029</t>
+          <t>2021-10-05 14:33:57.597484</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540031</t>
+          <t>2021-10-05 14:33:57.597486</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540034</t>
+          <t>2021-10-05 14:33:57.597489</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540038</t>
+          <t>2021-10-05 14:33:57.597493</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540041</t>
+          <t>2021-10-05 14:33:57.597496</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540044</t>
+          <t>2021-10-05 14:33:57.597498</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540046</t>
+          <t>2021-10-05 14:33:57.597501</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540049</t>
+          <t>2021-10-05 14:33:57.597503</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540051</t>
+          <t>2021-10-05 14:33:57.597506</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540054</t>
+          <t>2021-10-05 14:33:57.597508</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540056</t>
+          <t>2021-10-05 14:33:57.597511</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540059</t>
+          <t>2021-10-05 14:33:57.597513</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540062</t>
+          <t>2021-10-05 14:33:57.597516</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540064</t>
+          <t>2021-10-05 14:33:57.597518</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540067</t>
+          <t>2021-10-05 14:33:57.597521</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540070</t>
+          <t>2021-10-05 14:33:57.597523</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540072</t>
+          <t>2021-10-05 14:33:57.597526</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540075</t>
+          <t>2021-10-05 14:33:57.597528</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540077</t>
+          <t>2021-10-05 14:33:57.597530</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540081</t>
+          <t>2021-10-05 14:33:57.597564</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540084</t>
+          <t>2021-10-05 14:33:57.597569</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540087</t>
+          <t>2021-10-05 14:33:57.597572</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540089</t>
+          <t>2021-10-05 14:33:57.597575</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540092</t>
+          <t>2021-10-05 14:33:57.597577</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540095</t>
+          <t>2021-10-05 14:33:57.597580</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540097</t>
+          <t>2021-10-05 14:33:57.597582</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540100</t>
+          <t>2021-10-05 14:33:57.597585</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540103</t>
+          <t>2021-10-05 14:33:57.597588</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540105</t>
+          <t>2021-10-05 14:33:57.597590</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540108</t>
+          <t>2021-10-05 14:33:57.597593</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540111</t>
+          <t>2021-10-05 14:33:57.597595</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540113</t>
+          <t>2021-10-05 14:33:57.597598</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540116</t>
+          <t>2021-10-05 14:33:57.597600</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,91 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:00.540119</t>
+          <t>2021-10-05 14:33:57.597603</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hereditary Neuropathy_CMT - isolated</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3069</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:47:47.252923Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:57.593992</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3069/?format=json</t>
         </is>
       </c>
     </row>
